--- a/results/LGBMClassifier-train_df.xlsx
+++ b/results/LGBMClassifier-train_df.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6904761904761905</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="C2" t="n">
         <v>0.7631578947368421</v>
       </c>
       <c r="D2" t="n">
-        <v>0.725</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="E2" t="n">
         <v>38</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8235294117647058</v>
+        <v>0.8</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7636363636363637</v>
+        <v>0.6545454545454545</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7924528301886793</v>
+        <v>0.7200000000000001</v>
       </c>
       <c r="E3" t="n">
         <v>55</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7634408602150538</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7634408602150538</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7634408602150538</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7634408602150538</v>
+        <v>0.6989247311827957</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7570028011204482</v>
+        <v>0.7020833333333334</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7633971291866029</v>
+        <v>0.7088516746411484</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7587264150943396</v>
+        <v>0.6972093023255814</v>
       </c>
       <c r="E5" t="n">
         <v>93</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7691635794102586</v>
+        <v>0.7199820788530465</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7634408602150538</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="D6" t="n">
-        <v>0.764891458713735</v>
+        <v>0.7013753438359589</v>
       </c>
       <c r="E6" t="n">
         <v>93</v>
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6170212765957447</v>
+        <v>0.5510204081632653</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7631578947368421</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6823529411764706</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="E12" t="n">
         <v>38</v>
@@ -671,13 +671,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8043478260869565</v>
+        <v>0.75</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6727272727272727</v>
+        <v>0.6</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7326732673267325</v>
+        <v>0.6666666666666665</v>
       </c>
       <c r="E13" t="n">
         <v>55</v>
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.6451612903225806</v>
       </c>
     </row>
     <row r="15">
@@ -709,13 +709,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7106845513413507</v>
+        <v>0.6505102040816326</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7179425837320574</v>
+        <v>0.6552631578947368</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7075131042516016</v>
+        <v>0.6436781609195401</v>
       </c>
       <c r="E15" t="n">
         <v>93</v>
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7278057951120527</v>
+        <v>0.6686965108624094</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7121122738459804</v>
+        <v>0.6478803608948214</v>
       </c>
       <c r="E16" t="n">
         <v>93</v>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6744186046511628</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7631578947368421</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7160493827160495</v>
+        <v>0.7126436781609196</v>
       </c>
       <c r="E17" t="n">
         <v>38</v>
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.82</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7454545454545455</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="D18" t="n">
-        <v>0.780952380952381</v>
+        <v>0.7474747474747475</v>
       </c>
       <c r="E18" t="n">
         <v>55</v>
@@ -785,16 +785,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7526881720430108</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7526881720430108</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7526881720430108</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7526881720430108</v>
+        <v>0.7311827956989247</v>
       </c>
     </row>
     <row r="20">
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.7472093023255814</v>
+        <v>0.7367810760667903</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7543062200956938</v>
+        <v>0.7442583732057416</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7485008818342151</v>
+        <v>0.7300592128178336</v>
       </c>
       <c r="E20" t="n">
         <v>93</v>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.7605151287821955</v>
+        <v>0.7558152293175335</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7526881720430108</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7544328762966757</v>
+        <v>0.733242697647592</v>
       </c>
       <c r="E21" t="n">
         <v>93</v>
@@ -842,13 +842,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="D22" t="n">
-        <v>0.717948717948718</v>
+        <v>0.7228915662650601</v>
       </c>
       <c r="E22" t="n">
         <v>38</v>
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8113207547169812</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7818181818181819</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7962962962962964</v>
+        <v>0.7766990291262137</v>
       </c>
       <c r="E23" t="n">
         <v>55</v>
@@ -880,16 +880,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.7634408602150538</v>
+        <v>0.7526881720430108</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7634408602150538</v>
+        <v>0.7526881720430108</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7634408602150538</v>
+        <v>0.7526881720430108</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7634408602150538</v>
+        <v>0.7526881720430108</v>
       </c>
     </row>
     <row r="25">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.7556603773584906</v>
+        <v>0.75</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7593301435406699</v>
+        <v>0.7583732057416268</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7571225071225072</v>
+        <v>0.7497952976956369</v>
       </c>
       <c r="E25" t="n">
         <v>93</v>
@@ -918,13 +918,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.76583485494015</v>
+        <v>0.7652329749103943</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7634408602150538</v>
+        <v>0.7526881720430108</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7642833072940601</v>
+        <v>0.7547131840861725</v>
       </c>
       <c r="E26" t="n">
         <v>93</v>
